--- a/test_cases/LS-S2-PE-16-01v2.xlsx
+++ b/test_cases/LS-S2-PE-16-01v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\GitHub\TestingAplicaciones-Los_Sintra-TPO\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A743F5-A4C8-4B31-8ADB-004B9A8F86FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3444851-228C-452A-BB94-CFC600301176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CP-01" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="72">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -239,13 +239,19 @@
   </si>
   <si>
     <t>Verificar que no se pueda crear un usuario con "Email" repetido</t>
+  </si>
+  <si>
+    <t>TC PASS</t>
+  </si>
+  <si>
+    <t>TC FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,8 +365,16 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +391,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -621,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -774,17 +800,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -803,17 +822,30 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W999"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D29" sqref="A25:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1065,7 +1097,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="53"/>
@@ -1250,7 +1282,7 @@
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="25.2" customHeight="1">
+    <row r="17" spans="1:7" ht="25.2" customHeight="1">
       <c r="A17" s="20"/>
       <c r="B17" s="10"/>
       <c r="D17" s="19">
@@ -1261,7 +1293,7 @@
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="27.6" customHeight="1">
+    <row r="18" spans="1:7" ht="27.6" customHeight="1">
       <c r="A18" s="20"/>
       <c r="B18" s="10"/>
       <c r="D18" s="19">
@@ -1272,7 +1304,7 @@
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="34.200000000000003" customHeight="1">
+    <row r="19" spans="1:7" ht="34.200000000000003" customHeight="1">
       <c r="D19" s="19">
         <v>12</v>
       </c>
@@ -1280,26 +1312,30 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A20" s="57" t="s">
+    <row r="20" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A20" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A21" s="58"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="64"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1">
+      <c r="G20" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A21" s="55"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="G21" s="72"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="22" t="s">
         <v>32</v>
       </c>
@@ -1314,103 +1350,103 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1">
+    <row r="23" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="62" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="53"/>
-      <c r="D24" s="66" t="s">
+      <c r="D24" s="63" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="53"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
+    <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="27">
         <v>1</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="64" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="53"/>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="64" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="53"/>
     </row>
-    <row r="26" spans="1:6" ht="31.8" customHeight="1">
+    <row r="26" spans="1:7" ht="31.8" customHeight="1">
       <c r="A26" s="27">
         <v>2</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="52" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="70"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1">
+      <c r="E26" s="67"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1">
       <c r="A27" s="27">
         <v>3</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="52" t="s">
+      <c r="C27" s="67"/>
+      <c r="D27" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="70"/>
-    </row>
-    <row r="28" spans="1:6" ht="39.75" customHeight="1">
+      <c r="E27" s="67"/>
+    </row>
+    <row r="28" spans="1:7" ht="39.75" customHeight="1">
       <c r="A28" s="27">
         <v>4</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="64" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="53"/>
-      <c r="D28" s="52"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="53"/>
     </row>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1">
+    <row r="29" spans="1:7" ht="14.25" customHeight="1">
       <c r="A29" s="27">
         <v>5</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="64" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="53"/>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="64" t="s">
         <v>66</v>
       </c>
       <c r="E29" s="53"/>
     </row>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1">
+    <row r="30" spans="1:7" ht="14.25" customHeight="1">
       <c r="A30" s="28"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
-    </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1">
+      <c r="B30" s="65"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" customHeight="1">
       <c r="A31" s="28"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1">
+      <c r="B31" s="65"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" customHeight="1">
       <c r="A32" s="28"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="55"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="66"/>
     </row>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
@@ -2380,12 +2416,8 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:E21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
+  <mergeCells count="22">
+    <mergeCell ref="G20:G21"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="B31:C31"/>
@@ -2402,6 +2434,11 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:E21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -2615,22 +2652,22 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="61"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A23" s="58"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
     </row>
     <row r="24" spans="1:5" ht="27.6">
       <c r="A24" s="44" t="s">
@@ -2651,11 +2688,11 @@
       <c r="A26" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="62" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="53"/>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="63" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="53"/>
@@ -2664,11 +2701,11 @@
       <c r="A27" s="27">
         <v>1</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="64" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="53"/>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="64" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="53"/>
@@ -2677,35 +2714,35 @@
       <c r="A28" s="27">
         <v>2</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="64" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="53"/>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="64" t="s">
         <v>46</v>
       </c>
       <c r="E28" s="53"/>
     </row>
     <row r="29" spans="1:5" ht="18.75" customHeight="1">
       <c r="A29" s="28"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D1:E1"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:E23"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2913,22 +2950,22 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.4">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="61"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
     </row>
     <row r="23" spans="1:5" ht="14.4">
-      <c r="A23" s="58"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
     </row>
     <row r="24" spans="1:5" ht="27.6">
       <c r="A24" s="44" t="s">
@@ -2949,11 +2986,11 @@
       <c r="A26" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="62" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="53"/>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="63" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="53"/>
@@ -2962,11 +2999,11 @@
       <c r="A27" s="27">
         <v>1</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="64" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="53"/>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="64" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="53"/>
@@ -2975,11 +3012,11 @@
       <c r="A28" s="27">
         <v>2</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="64" t="s">
         <v>51</v>
       </c>
       <c r="C28" s="53"/>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="64" t="s">
         <v>46</v>
       </c>
       <c r="E28" s="53"/>
@@ -3010,8 +3047,8 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3195,7 +3232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.4">
+    <row r="17" spans="1:6" ht="14.4">
       <c r="D17" s="27">
         <v>12</v>
       </c>
@@ -3203,25 +3240,25 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.4">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:6" ht="14.4">
+      <c r="A19" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61"/>
-    </row>
-    <row r="20" spans="1:5" ht="14.4">
-      <c r="A20" s="58"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64"/>
-    </row>
-    <row r="21" spans="1:5" ht="27.6">
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.4">
+      <c r="A20" s="55"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="61"/>
+    </row>
+    <row r="21" spans="1:6" ht="27.6">
       <c r="A21" s="44" t="s">
         <v>32</v>
       </c>
@@ -3235,91 +3272,88 @@
       <c r="E21" s="47" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.4">
+      <c r="F21" s="71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.4">
       <c r="A23" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="62" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="53"/>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="63" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="53"/>
     </row>
-    <row r="24" spans="1:5" ht="14.4" customHeight="1">
+    <row r="24" spans="1:6" ht="14.4" customHeight="1">
       <c r="A24" s="27">
         <v>1</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="64" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="53"/>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="64" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="53"/>
     </row>
-    <row r="25" spans="1:5" ht="51" customHeight="1">
+    <row r="25" spans="1:6" ht="51" customHeight="1">
       <c r="A25" s="27">
         <v>2</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="52" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="70"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1">
+      <c r="E25" s="67"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26" s="27">
         <v>3</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="52" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="70"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1">
+      <c r="E26" s="67"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1">
       <c r="A27" s="27">
         <v>4</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="64" t="s">
         <v>64</v>
       </c>
       <c r="C27" s="53"/>
-      <c r="D27" s="52"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="53"/>
     </row>
-    <row r="28" spans="1:5" ht="27.6" customHeight="1">
+    <row r="28" spans="1:6" ht="27.6" customHeight="1">
       <c r="A28" s="27">
         <v>5</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="64" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="53"/>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="70"/>
+      <c r="E28" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D1:E1"/>
@@ -3329,8 +3363,15 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3539,22 +3580,22 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.4">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="61"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
     </row>
     <row r="23" spans="1:5" ht="14.4">
-      <c r="A23" s="58"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
     </row>
     <row r="24" spans="1:5" ht="27.6">
       <c r="A24" s="44" t="s">
@@ -3575,11 +3616,11 @@
       <c r="A26" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="62" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="53"/>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="63" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="53"/>
@@ -3588,11 +3629,11 @@
       <c r="A27" s="27">
         <v>1</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="64" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="53"/>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="64" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="53"/>
@@ -3601,11 +3642,11 @@
       <c r="A28" s="51">
         <v>2</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="70" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="53"/>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="70" t="s">
         <v>46</v>
       </c>
       <c r="E28" s="53"/>
